--- a/用例/dms用例集.xlsx
+++ b/用例/dms用例集.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
   <si>
     <t>项目名称：</t>
   </si>
@@ -451,6 +451,30 @@
 2、查询出该客户已有门店</t>
   </si>
   <si>
+    <t>1、检查门店列表内容是否正确</t>
+  </si>
+  <si>
+    <t>1、门店列表字段和内容正确</t>
+  </si>
+  <si>
+    <t>1、门店列表每页显示数量选择5</t>
+  </si>
+  <si>
+    <t>1、门店列表每页显示数量选择10</t>
+  </si>
+  <si>
+    <t>1、门店列表每页显示数量选择20</t>
+  </si>
+  <si>
+    <t>1、门店列表每页显示数量选择50</t>
+  </si>
+  <si>
+    <t>1、门店列表每页显示数量选择100</t>
+  </si>
+  <si>
+    <t>1、门店列表每页显示数量选择200</t>
+  </si>
+  <si>
     <t>前置：选择一个商户</t>
   </si>
   <si>
@@ -460,6 +484,19 @@
     <t>1、出现创建新门店的页面，客户名称为已选择的客户名称</t>
   </si>
   <si>
+    <t>1、点击创建新门店，直接点击重置</t>
+  </si>
+  <si>
+    <t>1、默认值保持不变，可输入值为空</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>1、点击创建新门店，所有参数正确输入
+2、点击重置</t>
+  </si>
+  <si>
     <t>1、只输入门店名称，其它参数不输入</t>
   </si>
   <si>
@@ -599,6 +636,123 @@
   </si>
   <si>
     <t>1、门店备注输入超长字符，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业ID输入为空，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业ID输入空格，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业ID输入数字，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业ID输入字母，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业ID输入字符组合，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业ID输入特殊字符组合，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业ID输入超长字符组合，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业注释输入为空，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业注释输入空格，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业注释输入数字，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业注释输入字母，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业注释输入字符组合，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业注释输入特殊字符组合，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、行业选择-行业注释输入超长字符组合，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌ID输入为空，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌ID输入空格，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌ID输入数字，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌ID输入字母，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌ID输入字符组合，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌ID输入特殊字符组合，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌ID输入超长字符组合，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌注释输入为空，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌注释输入空格，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌注释输入数字，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌注释输入字母，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌注释输入字符组合，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌注释输入特殊字符组合，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>1、品牌-品牌注释输入超长字符组合，其它参数正确输入</t>
+  </si>
+  <si>
+    <t>提交订单</t>
+  </si>
+  <si>
+    <t>1、直接点击提交</t>
+  </si>
+  <si>
+    <t>1、提示： Please choose an action.</t>
+  </si>
+  <si>
+    <t>1、选择提交订单操作，点击提交</t>
+  </si>
+  <si>
+    <t>1、提示：No stores were selected.</t>
+  </si>
+  <si>
+    <t>1、选择一个门店，其它正确输入，点击提交</t>
+  </si>
+  <si>
+    <t>1、弹出提示框：Create order successful.</t>
+  </si>
+  <si>
+    <t>1、选择多个门店，其它正确输入，点击提交</t>
+  </si>
+  <si>
+    <t>1、选择所有门店，其它正确输入，点击提交</t>
+  </si>
+  <si>
+    <t>1、订单说明不输入，其它正确输入，点击提交</t>
+  </si>
+  <si>
+    <t>1、弹出提示框：Please enter the order details.</t>
   </si>
   <si>
     <t>新建订单页-查询功能</t>
@@ -2472,10 +2626,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2686,7 +2840,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>44</v>
@@ -2697,7 +2851,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>46</v>
@@ -2708,7 +2862,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>48</v>
@@ -2719,7 +2873,7 @@
     </row>
     <row r="17" ht="27" spans="1:6">
       <c r="A17" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>50</v>
@@ -2730,7 +2884,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>51</v>
@@ -2744,7 +2898,7 @@
     </row>
     <row r="19" ht="27" spans="1:7">
       <c r="A19" s="13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>54</v>
@@ -2758,7 +2912,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>57</v>
@@ -2772,7 +2926,7 @@
     </row>
     <row r="21" ht="27" spans="1:6">
       <c r="A21" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>59</v>
@@ -2786,7 +2940,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>62</v>
@@ -2800,7 +2954,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>64</v>
@@ -2814,7 +2968,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>66</v>
@@ -2828,7 +2982,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>68</v>
@@ -2842,7 +2996,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>70</v>
@@ -2854,7 +3008,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
+    <row r="27" spans="1:6">
+      <c r="A27" s="13">
+        <v>17</v>
+      </c>
       <c r="D27" s="19" t="s">
         <v>72</v>
       </c>
@@ -2867,7 +3024,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>74</v>
@@ -2881,7 +3038,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>76</v>
@@ -2892,7 +3049,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>77</v>
@@ -2906,7 +3063,7 @@
     </row>
     <row r="31" ht="27" spans="1:7">
       <c r="A31" s="13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>79</v>
@@ -2920,7 +3077,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>81</v>
@@ -2928,7 +3085,7 @@
     </row>
     <row r="33" ht="27" spans="1:6">
       <c r="A33" s="13">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>82</v>
@@ -2939,7 +3096,7 @@
     </row>
     <row r="34" ht="54" spans="1:6">
       <c r="A34" s="13">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>84</v>
@@ -2953,7 +3110,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="13">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>87</v>
@@ -2964,7 +3121,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="13">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>88</v>
@@ -2975,7 +3132,7 @@
     </row>
     <row r="37" ht="40.5" spans="1:6">
       <c r="A37" s="13">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>89</v>
@@ -2986,7 +3143,7 @@
     </row>
     <row r="38" ht="40.5" spans="1:6">
       <c r="A38" s="13">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>91</v>
@@ -2997,7 +3154,7 @@
     </row>
     <row r="39" ht="40.5" spans="1:6">
       <c r="A39" s="13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>92</v>
@@ -3008,7 +3165,7 @@
     </row>
     <row r="40" ht="40.5" spans="1:6">
       <c r="A40" s="13">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>94</v>
@@ -3019,7 +3176,7 @@
     </row>
     <row r="41" ht="27" spans="1:6">
       <c r="A41" s="13">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>95</v>
@@ -3030,7 +3187,7 @@
     </row>
     <row r="42" ht="27" spans="1:6">
       <c r="A42" s="13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>97</v>
@@ -3041,7 +3198,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="13">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>98</v>
@@ -3052,7 +3209,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="13">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>99</v>
@@ -3063,7 +3220,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="13">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>100</v>
@@ -3077,7 +3234,7 @@
     </row>
     <row r="46" ht="27" spans="1:6">
       <c r="A46" s="13">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>101</v>
@@ -3088,7 +3245,7 @@
     </row>
     <row r="47" ht="27" spans="1:6">
       <c r="A47" s="13">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>102</v>
@@ -3099,7 +3256,7 @@
     </row>
     <row r="48" ht="27" spans="1:7">
       <c r="A48" s="13">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>103</v>
@@ -3113,7 +3270,7 @@
     </row>
     <row r="49" ht="27" spans="1:4">
       <c r="A49" s="13">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>104</v>
@@ -3121,7 +3278,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="13">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>105</v>
@@ -3132,7 +3289,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="13">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>106</v>
@@ -3143,7 +3300,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="13">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>107</v>
@@ -3154,7 +3311,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="13">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>108</v>
@@ -3168,7 +3325,7 @@
     </row>
     <row r="54" ht="27" spans="1:6">
       <c r="A54" s="13">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>110</v>
@@ -3179,7 +3336,7 @@
     </row>
     <row r="55" ht="27" spans="1:6">
       <c r="A55" s="13">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>111</v>
@@ -3190,7 +3347,7 @@
     </row>
     <row r="56" ht="27" spans="1:7">
       <c r="A56" s="13">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>112</v>
@@ -3204,7 +3361,7 @@
     </row>
     <row r="57" ht="27" spans="1:4">
       <c r="A57" s="13">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>113</v>
@@ -3212,7 +3369,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="13">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>114</v>
@@ -3223,7 +3380,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="13">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>115</v>
@@ -3234,7 +3391,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="13">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>116</v>
@@ -3245,7 +3402,7 @@
     </row>
     <row r="61" ht="27" spans="1:6">
       <c r="A61" s="13">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>117</v>
@@ -3256,7 +3413,7 @@
     </row>
     <row r="62" ht="27" spans="1:6">
       <c r="A62" s="13">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>118</v>
@@ -3267,7 +3424,7 @@
     </row>
     <row r="63" ht="27" spans="1:7">
       <c r="A63" s="13">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>119</v>
@@ -3281,7 +3438,7 @@
     </row>
     <row r="64" ht="27" spans="1:4">
       <c r="A64" s="13">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>120</v>
@@ -3289,7 +3446,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="13">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>121</v>
@@ -3300,7 +3457,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="13">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>122</v>
@@ -3314,7 +3471,7 @@
     </row>
     <row r="67" ht="40.5" spans="1:6">
       <c r="A67" s="13">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>124</v>
@@ -3328,7 +3485,7 @@
     </row>
     <row r="68" ht="40.5" spans="1:7">
       <c r="A68" s="13">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>126</v>
@@ -3345,7 +3502,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="13">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>129</v>
@@ -3359,7 +3516,7 @@
     </row>
     <row r="70" ht="27" spans="1:6">
       <c r="A70" s="13">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>130</v>
@@ -3370,7 +3527,7 @@
     </row>
     <row r="71" ht="27" spans="1:7">
       <c r="A71" s="13">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D71" s="19" t="s">
         <v>131</v>
@@ -3387,7 +3544,9 @@
       <c r="F72" s="19"/>
     </row>
     <row r="73" ht="27" spans="1:7">
-      <c r="A73" s="21"/>
+      <c r="A73" s="13">
+        <v>62</v>
+      </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
       <c r="D73" s="22" t="s">
@@ -3416,15 +3575,21 @@
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="4:6">
-      <c r="D76" s="13" t="s">
+    <row r="76" spans="1:6">
+      <c r="A76" s="13">
+        <v>63</v>
+      </c>
+      <c r="D76" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" ht="27" spans="4:6">
+    <row r="77" ht="27" spans="1:6">
+      <c r="A77" s="13">
+        <v>64</v>
+      </c>
       <c r="D77" s="13" t="s">
         <v>136</v>
       </c>
@@ -3432,367 +3597,1046 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" ht="27" spans="3:6">
-      <c r="C78" s="13" t="s">
+    <row r="78" spans="4:6">
+      <c r="D78" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="F78" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="79" spans="4:6">
       <c r="D79" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6">
+      <c r="D80" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F80" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6">
+      <c r="D81" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="80" spans="4:6">
-      <c r="D80" s="13" t="s">
+      <c r="F81" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6">
+      <c r="D82" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F80" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="4:7">
-      <c r="D81" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="4:7">
-      <c r="D82" s="13" t="s">
-        <v>148</v>
-      </c>
       <c r="F82" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="4:6">
       <c r="D83" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="4:6">
       <c r="D84" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" ht="27" spans="1:6">
+      <c r="A85" s="13">
+        <v>65</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7">
+      <c r="D86" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" ht="27" spans="4:6">
+      <c r="D87" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" ht="27" spans="4:6">
-      <c r="D85" s="19" t="s">
+      <c r="F87" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="13">
+        <v>66</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F85" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="4:6">
-      <c r="D86" s="19" t="s">
+      <c r="F88" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="13">
+        <v>67</v>
+      </c>
+      <c r="D89" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="4:6">
-      <c r="D87" s="19" t="s">
+      <c r="F89" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F87" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="4:6">
-      <c r="D88" s="19" t="s">
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="13">
+        <v>68</v>
+      </c>
+      <c r="D90" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="4:6">
-      <c r="D89" s="19" t="s">
+      <c r="F90" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F89" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="90" ht="27" spans="4:6">
-      <c r="D90" s="19" t="s">
+      <c r="G90" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" ht="27" spans="4:6">
-      <c r="D91" s="19" t="s">
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="13">
+        <v>69</v>
+      </c>
+      <c r="D91" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F91" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="4:6">
+      <c r="F91" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="13">
+        <v>70</v>
+      </c>
       <c r="D92" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" ht="27" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="13">
+        <v>71</v>
+      </c>
       <c r="D93" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="94" ht="27" spans="4:6">
+        <v>164</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" ht="27" spans="1:6">
+      <c r="A94" s="13">
+        <v>72</v>
+      </c>
       <c r="D94" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" ht="27" spans="4:7">
+        <v>165</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="13">
+        <v>73</v>
+      </c>
       <c r="D95" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G95" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="13">
+        <v>74</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="13">
+        <v>75</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="13">
+        <v>76</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" ht="27" spans="1:6">
+      <c r="A99" s="13">
+        <v>77</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" ht="27" spans="1:6">
+      <c r="A100" s="13">
+        <v>78</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="13">
+        <v>79</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" ht="27" spans="1:6">
+      <c r="A102" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="96" spans="4:6">
-      <c r="D96" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F96" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="4:6">
-      <c r="D97" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F97" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="4:6">
-      <c r="D98" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="99" spans="4:6">
-      <c r="D99" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F99" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6">
-      <c r="D100" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" ht="27" spans="4:6">
-      <c r="D101" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" ht="27" spans="4:7">
       <c r="D102" s="19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G102" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" ht="27" spans="1:6">
+      <c r="A103" s="13">
+        <v>81</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" ht="27" spans="1:7">
+      <c r="A104" s="13">
+        <v>82</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G104" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="4:6">
-      <c r="D103" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F103" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="4:6">
-      <c r="D104" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F104" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="4:6">
+    <row r="105" spans="1:6">
+      <c r="A105" s="13">
+        <v>83</v>
+      </c>
       <c r="D105" s="19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="13">
+        <v>84</v>
+      </c>
       <c r="D106" s="19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" ht="27" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="13">
+        <v>85</v>
+      </c>
       <c r="D107" s="19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="13">
+        <v>86</v>
+      </c>
       <c r="D108" s="19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="13">
+        <v>87</v>
+      </c>
       <c r="D109" s="19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" ht="27" spans="1:6">
+      <c r="A110" s="13">
+        <v>88</v>
+      </c>
       <c r="D110" s="19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="111" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" ht="27" spans="1:7">
+      <c r="A111" s="13">
+        <v>89</v>
+      </c>
       <c r="D111" s="19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="112" ht="27" spans="4:6">
+        <v>154</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="13">
+        <v>90</v>
+      </c>
       <c r="D112" s="19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="13">
+        <v>91</v>
+      </c>
       <c r="D113" s="19" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="13">
+        <v>92</v>
+      </c>
       <c r="D114" s="19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="13">
+        <v>93</v>
+      </c>
       <c r="D115" s="19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" ht="27" spans="1:6">
+      <c r="A116" s="13">
+        <v>94</v>
+      </c>
       <c r="D116" s="19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" ht="27" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="13">
+        <v>95</v>
+      </c>
       <c r="D117" s="19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="13">
+        <v>96</v>
+      </c>
       <c r="D118" s="19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="13">
+        <v>97</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="13">
+        <v>98</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" ht="27" spans="1:6">
+      <c r="A121" s="13">
+        <v>99</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="13">
+        <v>100</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="13">
+        <v>101</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="13">
+        <v>102</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F124" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="13">
+        <v>103</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" ht="27" spans="1:6">
+      <c r="A126" s="13">
+        <v>104</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="13">
+        <v>105</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F127" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" ht="27" spans="1:6">
+      <c r="A128" s="13">
+        <v>106</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F128" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" ht="27" spans="1:6">
+      <c r="A129" s="13">
+        <v>107</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="F129" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" ht="27" spans="1:6">
+      <c r="A130" s="13">
+        <v>108</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F130" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" ht="27" spans="1:6">
+      <c r="A131" s="13">
+        <v>109</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" ht="27" spans="1:6">
+      <c r="A132" s="13">
+        <v>110</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" ht="27" spans="1:6">
+      <c r="A133" s="13">
+        <v>111</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" ht="27" spans="1:6">
+      <c r="A134" s="13">
+        <v>112</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="135" ht="27" spans="1:6">
+      <c r="A135" s="13">
+        <v>113</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" ht="27" spans="1:6">
+      <c r="A136" s="13">
+        <v>114</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F136" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" ht="27" spans="1:6">
+      <c r="A137" s="13">
+        <v>115</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" ht="27" spans="1:6">
+      <c r="A138" s="13">
+        <v>116</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F138" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" ht="27" spans="1:6">
+      <c r="A139" s="13">
+        <v>117</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F139" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="140" ht="27" spans="1:6">
+      <c r="A140" s="13">
+        <v>118</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F140" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141" ht="27" spans="1:6">
+      <c r="A141" s="13">
+        <v>119</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F141" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="13">
+        <v>120</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F142" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="13">
+        <v>121</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F143" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="13">
+        <v>122</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F144" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="13">
+        <v>123</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F145" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" ht="27" spans="1:6">
+      <c r="A146" s="13">
+        <v>124</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F146" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="147" ht="27" spans="1:6">
+      <c r="A147" s="13">
+        <v>125</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F147" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" ht="27" spans="1:6">
+      <c r="A148" s="13">
+        <v>126</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F148" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="13">
+        <v>127</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F149" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="13">
+        <v>128</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F150" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="13">
+        <v>129</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F151" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="13">
+        <v>130</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F152" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="153" ht="27" spans="1:6">
+      <c r="A153" s="13">
+        <v>131</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F153" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" ht="27" spans="1:6">
+      <c r="A154" s="13">
+        <v>132</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F154" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" ht="27" spans="1:6">
+      <c r="A155" s="13">
+        <v>133</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="13">
+        <v>134</v>
+      </c>
+      <c r="D156" s="19"/>
+      <c r="F156" s="19"/>
+    </row>
+    <row r="157" spans="4:6">
+      <c r="D157" s="19"/>
+      <c r="F157" s="19"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+    </row>
+    <row r="159" ht="27" spans="3:6">
+      <c r="C159" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6">
+      <c r="D160" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F160" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6">
+      <c r="D161" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F161" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6">
+      <c r="D162" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F162" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6">
+      <c r="D163" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F163" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="164" ht="27" spans="4:6">
+      <c r="D164" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F164" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6">
+      <c r="D165" s="19"/>
+      <c r="F165" s="19"/>
+    </row>
+    <row r="166" spans="4:6">
+      <c r="D166" s="19"/>
+      <c r="F166" s="19"/>
+    </row>
+    <row r="167" spans="4:6">
+      <c r="D167" s="19"/>
+      <c r="F167" s="19"/>
+    </row>
+    <row r="168" spans="4:6">
+      <c r="D168" s="19"/>
+      <c r="F168" s="19"/>
+    </row>
+    <row r="169" spans="4:6">
+      <c r="D169" s="19"/>
+      <c r="F169" s="19"/>
+    </row>
+    <row r="170" spans="4:6">
+      <c r="D170" s="19"/>
+      <c r="F170" s="19"/>
+    </row>
+    <row r="171" spans="4:6">
+      <c r="D171" s="19"/>
+      <c r="F171" s="19"/>
+    </row>
+    <row r="172" spans="4:6">
+      <c r="D172" s="19"/>
+      <c r="F172" s="19"/>
+    </row>
+    <row r="173" spans="4:6">
+      <c r="D173" s="19"/>
+      <c r="F173" s="19"/>
+    </row>
+    <row r="174" spans="4:6">
+      <c r="D174" s="19"/>
+      <c r="F174" s="19"/>
+    </row>
+    <row r="175" spans="4:6">
+      <c r="D175" s="19"/>
+      <c r="F175" s="19"/>
+    </row>
+    <row r="176" spans="4:6">
+      <c r="D176" s="19"/>
+      <c r="F176" s="19"/>
+    </row>
+    <row r="177" spans="4:6">
+      <c r="D177" s="19"/>
+      <c r="F177" s="19"/>
+    </row>
+    <row r="178" spans="4:6">
+      <c r="D178" s="19"/>
+      <c r="F178" s="19"/>
+    </row>
+    <row r="179" spans="4:6">
+      <c r="D179" s="19"/>
+      <c r="F179" s="19"/>
+    </row>
+    <row r="180" spans="4:6">
+      <c r="D180" s="19"/>
+      <c r="F180" s="19"/>
+    </row>
+    <row r="181" spans="4:6">
+      <c r="D181" s="19"/>
+      <c r="F181" s="19"/>
+    </row>
+    <row r="182" spans="4:6">
+      <c r="D182" s="19"/>
+      <c r="F182" s="19"/>
+    </row>
+    <row r="183" spans="4:6">
+      <c r="D183" s="19"/>
+      <c r="F183" s="19"/>
+    </row>
+    <row r="184" spans="4:6">
+      <c r="D184" s="19"/>
+      <c r="F184" s="19"/>
+    </row>
+    <row r="185" spans="4:6">
+      <c r="D185" s="19"/>
+      <c r="F185" s="19"/>
+    </row>
+    <row r="186" spans="4:6">
+      <c r="D186" s="19"/>
+      <c r="F186" s="19"/>
+    </row>
+    <row r="187" spans="4:6">
+      <c r="D187" s="19"/>
+      <c r="F187" s="19"/>
+    </row>
+    <row r="188" spans="4:6">
+      <c r="D188" s="19"/>
+      <c r="F188" s="19"/>
+    </row>
+    <row r="189" spans="4:6">
+      <c r="D189" s="19"/>
+      <c r="F189" s="19"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:J1"/>
@@ -3814,7 +4658,8 @@
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A75:I75"/>
-    <mergeCell ref="A144:I144"/>
+    <mergeCell ref="A158:G158"/>
+    <mergeCell ref="A191:I191"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3875,7 +4720,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
@@ -3987,7 +4832,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="7" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4001,7 +4846,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4015,7 +4860,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="7" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -4029,7 +4874,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="10" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4043,7 +4888,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="10" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4126,7 +4971,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4281,7 +5126,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="7" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -4361,7 +5206,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4488,7 +5333,7 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -4530,7 +5375,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="7" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -4544,7 +5389,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="7" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4558,7 +5403,7 @@
     </row>
     <row r="64" ht="16.5" customHeight="1" spans="1:10">
       <c r="A64" s="10" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4586,7 +5431,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="7" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -4600,7 +5445,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="7" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -4614,7 +5459,7 @@
     </row>
     <row r="110" ht="21.75" customHeight="1" spans="1:10">
       <c r="A110" s="10" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -4642,7 +5487,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="7" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4731,7 +5576,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4858,7 +5703,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="7" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
